--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N2">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q2">
-        <v>5711.096969596372</v>
+        <v>46.46829694220399</v>
       </c>
       <c r="R2">
-        <v>51399.87272636736</v>
+        <v>418.2146724798359</v>
       </c>
       <c r="S2">
-        <v>0.03498289110195767</v>
+        <v>0.002078979523682423</v>
       </c>
       <c r="T2">
-        <v>0.03498289110195768</v>
+        <v>0.002078979523682422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q3">
-        <v>699.1800992656559</v>
+        <v>198.588940825896</v>
       </c>
       <c r="R3">
-        <v>6292.620893390904</v>
+        <v>1787.300467433064</v>
       </c>
       <c r="S3">
-        <v>0.004282774640927703</v>
+        <v>0.008884817580474814</v>
       </c>
       <c r="T3">
-        <v>0.004282774640927704</v>
+        <v>0.008884817580474812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N4">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q4">
-        <v>1785.104665443605</v>
+        <v>90.60051111193222</v>
       </c>
       <c r="R4">
-        <v>16065.94198899244</v>
+        <v>815.4046000073899</v>
       </c>
       <c r="S4">
-        <v>0.01093452316591005</v>
+        <v>0.004053443311493462</v>
       </c>
       <c r="T4">
-        <v>0.01093452316591005</v>
+        <v>0.004053443311493462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N5">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O5">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P5">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q5">
-        <v>100645.0928613781</v>
+        <v>2883.127348022214</v>
       </c>
       <c r="R5">
-        <v>905805.8357524035</v>
+        <v>25948.14613219993</v>
       </c>
       <c r="S5">
-        <v>0.6164938788922093</v>
+        <v>0.1289903679526305</v>
       </c>
       <c r="T5">
-        <v>0.6164938788922094</v>
+        <v>0.1289903679526305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P6">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q6">
         <v>12321.45880065364</v>
@@ -818,10 +818,10 @@
         <v>110893.1292058827</v>
       </c>
       <c r="S6">
-        <v>0.07547416087228292</v>
+        <v>0.551258863227031</v>
       </c>
       <c r="T6">
-        <v>0.07547416087228294</v>
+        <v>0.5512588632270309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N7">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O7">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P7">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q7">
-        <v>31458.40908975994</v>
+        <v>5621.31234670579</v>
       </c>
       <c r="R7">
-        <v>283125.6818078395</v>
+        <v>50591.81112035212</v>
       </c>
       <c r="S7">
-        <v>0.1926960976650489</v>
+        <v>0.2514960528800957</v>
       </c>
       <c r="T7">
-        <v>0.1926960976650489</v>
+        <v>0.2514960528800957</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N8">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O8">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P8">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q8">
-        <v>7410.253956167236</v>
+        <v>164.734315537218</v>
       </c>
       <c r="R8">
-        <v>66692.28560550514</v>
+        <v>1482.608839834962</v>
       </c>
       <c r="S8">
-        <v>0.04539094828305296</v>
+        <v>0.007370170447083132</v>
       </c>
       <c r="T8">
-        <v>0.04539094828305297</v>
+        <v>0.007370170447083131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P9">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q9">
-        <v>907.1991115260118</v>
+        <v>704.0157568267319</v>
       </c>
       <c r="R9">
-        <v>8164.792003734107</v>
+        <v>6336.141811440588</v>
       </c>
       <c r="S9">
-        <v>0.005556979315052704</v>
+        <v>0.03149748192004945</v>
       </c>
       <c r="T9">
-        <v>0.005556979315052705</v>
+        <v>0.03149748192004945</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N10">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O10">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P10">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q10">
-        <v>2316.206322480101</v>
+        <v>321.1870063563894</v>
       </c>
       <c r="R10">
-        <v>20845.85690232091</v>
+        <v>2890.683057207505</v>
       </c>
       <c r="S10">
-        <v>0.01418774606355769</v>
+        <v>0.01436982315745955</v>
       </c>
       <c r="T10">
-        <v>0.0141877460635577</v>
+        <v>0.01436982315745955</v>
       </c>
     </row>
   </sheetData>
